--- a/prueba_tipo_cambio_eur_ine.xlsx
+++ b/prueba_tipo_cambio_eur_ine.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5868"/>
+  <dimension ref="A1:C5872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65091,6 +65091,50 @@
         <v>44.74</v>
       </c>
     </row>
+    <row r="5869">
+      <c r="A5869" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5869" s="2" t="n">
+        <v>46043</v>
+      </c>
+      <c r="C5869" t="n">
+        <v>44.93000000000001</v>
+      </c>
+    </row>
+    <row r="5870">
+      <c r="A5870" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5870" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="C5870" t="n">
+        <v>44.355</v>
+      </c>
+    </row>
+    <row r="5871">
+      <c r="A5871" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5871" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="C5871" t="n">
+        <v>43.96</v>
+      </c>
+    </row>
+    <row r="5872">
+      <c r="A5872" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5872" s="2" t="n">
+        <v>46048</v>
+      </c>
+      <c r="C5872" t="n">
+        <v>45.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
